--- a/data/lookups.xlsx
+++ b/data/lookups.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -3214,7 +3214,7 @@
   <dimension ref="A1:M12962"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
